--- a/examples/original_excel.xlsx
+++ b/examples/original_excel.xlsx
@@ -1,234 +1,243 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/src/ooxml/Mappen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="17100" windowHeight="14660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27580"/>
   </bookViews>
   <sheets>
-    <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blatt 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blatt1!$F$20:$G$20</definedName>
-  </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+  <si>
+    <t>this text will be automatically wrapped by excel</t>
+  </si>
+  <si>
+    <t>#,##0.00</t>
+  </si>
+  <si>
+    <t>tt.mm.jj</t>
+  </si>
+  <si>
+    <t>unten</t>
+  </si>
+  <si>
+    <t># ?/?</t>
+  </si>
+  <si>
+    <t>mm-dd-yy</t>
+  </si>
+  <si>
+    <t>3 Spalten</t>
+  </si>
+  <si>
+    <t>unten mittel</t>
+  </si>
+  <si>
+    <t>12 Zellen</t>
+  </si>
   <si>
     <t>Standard</t>
   </si>
   <si>
+    <t>vorne rot</t>
+  </si>
+  <si>
+    <t>unterstrichen</t>
+  </si>
+  <si>
+    <t>rot</t>
+  </si>
+  <si>
+    <t>hh:mm</t>
+  </si>
+  <si>
+    <t>Zahl 3</t>
+  </si>
+  <si>
+    <t>rechts</t>
+  </si>
+  <si>
+    <t>Bruch 2</t>
+  </si>
+  <si>
+    <t>h:mm;@</t>
+  </si>
+  <si>
+    <t>#,##0.000</t>
+  </si>
+  <si>
+    <t>tttt, t.mmmm.jj</t>
+  </si>
+  <si>
+    <t># ??/??</t>
+  </si>
+  <si>
+    <t>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</t>
+  </si>
+  <si>
+    <t>3 Zeilen</t>
+  </si>
+  <si>
+    <t>diagonal mittel</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Filter A</t>
+  </si>
+  <si>
+    <t>Filter B</t>
+  </si>
+  <si>
+    <t>hinten gelb</t>
+  </si>
+  <si>
     <t>Text</t>
   </si>
   <si>
+    <t>gelb</t>
+  </si>
+  <si>
+    <t>jjjj-mm-tt hh:mm:ss</t>
+  </si>
+  <si>
+    <t>Zahl 3 C</t>
+  </si>
+  <si>
+    <t>oben</t>
+  </si>
+  <si>
+    <t>Wissenschaftl. 2</t>
+  </si>
+  <si>
+    <t>yyyy\-mm\-dd\ hh:mm:ss;@</t>
+  </si>
+  <si>
+    <t>#,##0.000_ ;[Red]\-#,##0.000\</t>
+  </si>
+  <si>
+    <t>t.mmmm.jjjj</t>
+  </si>
+  <si>
+    <t>links</t>
+  </si>
+  <si>
+    <t>0.00E+00</t>
+  </si>
+  <si>
+    <t>[$-407]d/\ mmmm\ yyyy;@</t>
+  </si>
+  <si>
+    <t>unten gestrichelt</t>
+  </si>
+  <si>
+    <t>fett</t>
+  </si>
+  <si>
     <t>Zahl 2</t>
   </si>
   <si>
+    <t>Prozent 2</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>Währung</t>
+  </si>
+  <si>
+    <t>mitte</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>3,1415</t>
+  </si>
+  <si>
+    <t>#,##0.00\ "€"</t>
+  </si>
+  <si>
+    <t>Text 90</t>
+  </si>
+  <si>
+    <t>Calibri 9</t>
+  </si>
+  <si>
+    <t>Text 45</t>
+  </si>
+  <si>
+    <t>unten doppelt</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>Calibri 18</t>
+  </si>
+  <si>
+    <t>kursiv</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>hh:mm:ss</t>
+  </si>
+  <si>
     <t>Zahl 2 T</t>
   </si>
   <si>
-    <t>Zahl 3</t>
-  </si>
-  <si>
-    <t>Zahl 3 C</t>
-  </si>
-  <si>
-    <t>Währung</t>
-  </si>
-  <si>
-    <t>tt.mm.jj</t>
-  </si>
-  <si>
-    <t>t.mmmm.jjjj</t>
-  </si>
-  <si>
-    <t>tttt, t.mmmm.jj</t>
-  </si>
-  <si>
-    <t>hh:mm:ss</t>
-  </si>
-  <si>
-    <t>hh:mm</t>
-  </si>
-  <si>
-    <t>jjjj-mm-tt hh:mm:ss</t>
-  </si>
-  <si>
-    <t>Prozent 2</t>
-  </si>
-  <si>
     <t>Bruch 1</t>
   </si>
   <si>
-    <t>Bruch 2</t>
-  </si>
-  <si>
-    <t>Wissenschaftl. 2</t>
-  </si>
-  <si>
-    <t>3,1415</t>
-  </si>
-  <si>
-    <t>#,##0.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#,##0.000_ ;[Red]\-#,##0.000\ </t>
-  </si>
-  <si>
-    <t>yyyy\-mm\-dd\ hh:mm:ss;@</t>
-  </si>
-  <si>
-    <t>#,##0.00\ &amp;quot;€&amp;quot;</t>
-  </si>
-  <si>
-    <t>[$-407]d/\ mmmm\ yyyy;@</t>
-  </si>
-  <si>
     <t>[$-F400]h:mm:ss\ AM/PM</t>
-  </si>
-  <si>
-    <t>h:mm;@</t>
-  </si>
-  <si>
-    <t>#,##0.00</t>
-  </si>
-  <si>
-    <t>mm-dd-yy</t>
-  </si>
-  <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t># ?/?</t>
-  </si>
-  <si>
-    <t># ??/??</t>
-  </si>
-  <si>
-    <t>0.00E+00</t>
-  </si>
-  <si>
-    <t>@</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>unten</t>
-  </si>
-  <si>
-    <t>links</t>
-  </si>
-  <si>
-    <t>unten doppelt</t>
-  </si>
-  <si>
-    <t>unten gestrichelt</t>
-  </si>
-  <si>
-    <t>hinten gelb</t>
-  </si>
-  <si>
-    <t>vorne rot</t>
-  </si>
-  <si>
-    <t>rot</t>
-  </si>
-  <si>
-    <t>gelb</t>
-  </si>
-  <si>
-    <t>mitte</t>
-  </si>
-  <si>
-    <t>rechts</t>
-  </si>
-  <si>
-    <t>oben</t>
-  </si>
-  <si>
-    <t>fett</t>
-  </si>
-  <si>
-    <t>kursiv</t>
-  </si>
-  <si>
-    <t>unterstrichen</t>
-  </si>
-  <si>
-    <t>Text 90</t>
-  </si>
-  <si>
-    <t>Text 45</t>
-  </si>
-  <si>
-    <t>3 Spalten</t>
-  </si>
-  <si>
-    <t>3 Zeilen</t>
-  </si>
-  <si>
-    <t>12 Zellen</t>
-  </si>
-  <si>
-    <t>Calibri 18</t>
-  </si>
-  <si>
-    <t>Filter A</t>
-  </si>
-  <si>
-    <t>Filter B</t>
-  </si>
-  <si>
-    <t>Calibri 9</t>
-  </si>
-  <si>
-    <t>unten mittel</t>
-  </si>
-  <si>
-    <t>diagonal mittel</t>
-  </si>
-  <si>
-    <t>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="10">
-    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="166" formatCode="[$-407]d/\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="168" formatCode="h:mm;@"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd\ hh:mm:ss;@"/>
-    <numFmt numFmtId="170" formatCode="#,##0.000_ ;[Red]\-#,##0.000\ "/>
-    <numFmt numFmtId="171" formatCode="#,##0.000"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    <numFmt numFmtId="173" formatCode="d/m/yy\ h:mm;@"/>
+  <numFmts count="8">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000_ ;[Red]\-#,##0.000\ "/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd\ hh:mm:ss;@"/>
+    <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="169" formatCode="[$-407]d/\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="170" formatCode="d/m/yy\ h:mm;@"/>
+    <numFmt numFmtId="171" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -236,60 +245,25 @@
     <font>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -309,9 +283,18 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -327,17 +310,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -349,10 +321,17 @@
     <border>
       <left/>
       <right/>
-      <top style="double">
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
-      </top>
-      <bottom style="medium">
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -360,60 +339,30 @@
     <border diagonalUp="1">
       <left/>
       <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal style="medium">
         <color auto="1"/>
       </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -430,41 +379,43 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -802,44 +753,43 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="20" topLeftCell="F21" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="15"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1"/>
+    <col min="5" max="5" width="31.1640625" bestFit="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1">
         <v>3.1415000000000002</v>
       </c>
-      <c r="I1" s="15">
+      <c r="I1">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
+        <v>42</v>
+      </c>
+      <c r="B3" s="22">
         <v>3.1415000000000002</v>
       </c>
       <c r="C3">
@@ -848,15 +798,15 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>32</v>
+      <c r="E3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
+        <v>59</v>
+      </c>
+      <c r="B4" s="23">
         <v>3.1415000000000002</v>
       </c>
       <c r="C4">
@@ -866,17 +816,17 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="19">
+        <v>1</v>
+      </c>
+      <c r="H4" s="31">
         <v>43140.678472222222</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17">
+        <v>14</v>
+      </c>
+      <c r="B5" s="24">
         <v>3.1415000000000002</v>
       </c>
       <c r="C5">
@@ -891,9 +841,9 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="16">
+        <v>31</v>
+      </c>
+      <c r="B6" s="25">
         <v>-3.1415000000000002</v>
       </c>
       <c r="C6">
@@ -903,14 +853,14 @@
         <v>173</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
+        <v>45</v>
+      </c>
+      <c r="B7" s="26">
         <v>3.1415000000000002</v>
       </c>
       <c r="C7">
@@ -920,14 +870,14 @@
         <v>166</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="B8" s="28">
         <v>43140.678472222222</v>
       </c>
       <c r="C8">
@@ -937,14 +887,14 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="5">
+        <v>19</v>
+      </c>
+      <c r="B9" s="29">
         <v>43140.678472222222</v>
       </c>
       <c r="C9">
@@ -954,14 +904,14 @@
         <v>167</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6">
+        <v>36</v>
+      </c>
+      <c r="B10" s="30">
         <v>43140.678472222222</v>
       </c>
       <c r="C10">
@@ -971,14 +921,14 @@
         <v>168</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7">
+        <v>58</v>
+      </c>
+      <c r="B11" s="33">
         <v>43140.678472222222</v>
       </c>
       <c r="C11">
@@ -988,14 +938,24 @@
         <v>169</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>61</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <f>G11+H11</f>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8">
+        <v>13</v>
+      </c>
+      <c r="B12" s="32">
         <v>43140.678472222222</v>
       </c>
       <c r="C12">
@@ -1005,14 +965,14 @@
         <v>170</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9">
+        <v>30</v>
+      </c>
+      <c r="B13" s="27">
         <v>43140.678472222222</v>
       </c>
       <c r="C13">
@@ -1022,14 +982,14 @@
         <v>171</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="34">
         <v>3.1415000000000002</v>
       </c>
       <c r="C14">
@@ -1039,14 +999,14 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="12">
+        <v>60</v>
+      </c>
+      <c r="B15" s="36">
         <v>3.1415000000000002</v>
       </c>
       <c r="C15">
@@ -1056,14 +1016,14 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13">
+        <v>16</v>
+      </c>
+      <c r="B16" s="37">
         <v>3.1415000000000002</v>
       </c>
       <c r="C16">
@@ -1073,14 +1033,14 @@
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="14">
+        <v>33</v>
+      </c>
+      <c r="B17" s="35">
         <v>3.1415000000000002</v>
       </c>
       <c r="C17">
@@ -1090,15 +1050,15 @@
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>48</v>
       </c>
       <c r="C18">
         <v>15</v>
@@ -1107,174 +1067,193 @@
         <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="18"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="19"/>
-      <c r="F20" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="F21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="E22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="20"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="E22" s="33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="22"/>
-      <c r="E23" s="34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="18"/>
+      <c r="E23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="23"/>
-      <c r="E24" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="E24" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="21"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="20"/>
+    </row>
+    <row r="27" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="H27" s="39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="24"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="20"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>41</v>
+      <c r="B32" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>42</v>
+        <v>15</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>33</v>
+        <v>3</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="43" x14ac:dyDescent="0.3">
-      <c r="A39" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="37" t="s">
+      <c r="A39" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>52</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D40" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
+        <v>8</v>
+      </c>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="40" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B41" s="40"/>
       <c r="C41" s="40"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B42" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
+        <v>22</v>
+      </c>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B43" s="40"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B44" s="40"/>
@@ -1287,6 +1266,5 @@
     <mergeCell ref="D40:F43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>